--- a/res/bangsach.xlsx
+++ b/res/bangsach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20201\Project1\20201-quan-ly-thu-vien\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BDDE89-2BD3-449A-9786-1D0F155B9A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06081E3-F3F3-41C4-A92C-35587DD691C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Mã sách</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>Giới thiệu</t>
+  </si>
+  <si>
+    <t>Thông tin tạo file:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +68,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,12 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,7 +394,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +436,9 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>

--- a/res/bangsach.xlsx
+++ b/res/bangsach.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20201\Project1\20201-quan-ly-thu-vien\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06081E3-F3F3-41C4-A92C-35587DD691C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A7213D-FAD6-4954-BF97-AB2607B1E71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,10 +107,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,21 +394,21 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -436,11 +436,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
